--- a/data_in/indicator_dictionary_CRBA.xlsx
+++ b/data_in/indicator_dictionary_CRBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\2020\28_UNICEF\10_working_repo\data-etl\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE6120F-3BEB-4F9D-8934-FA8F98BABAAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B528297-9718-4D6A-ACD4-24CB022FB97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value_type" sheetId="3" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5776" uniqueCount="2187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5778" uniqueCount="2189">
   <si>
     <t>VALUE_ID</t>
   </si>
@@ -5786,6 +5786,9 @@
     <t>Proportion of population covered by social insurance programmes</t>
   </si>
   <si>
+    <t>DIM_QUANTILE=="_T"</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.3  </t>
   </si>
   <si>
@@ -5795,7 +5798,7 @@
     <t>Poorest quintile covered by social insurance programmes</t>
   </si>
   <si>
-    <t>DIM_QUANTILE=="_T"</t>
+    <t>DIM_QUANTILE=="Q1"</t>
   </si>
   <si>
     <t>Coverage of labour market programmes.</t>
@@ -5804,9 +5807,6 @@
     <t>Proportion of population covered by labour market programmes</t>
   </si>
   <si>
-    <t>DIM_QUANTILE=="Q1"</t>
-  </si>
-  <si>
     <t>Poorest covered by labour market programmes.</t>
   </si>
   <si>
@@ -6078,6 +6078,9 @@
   </si>
   <si>
     <t>Proportion of population aged 18-29 years who experienced sexual violence by age 18</t>
+  </si>
+  <si>
+    <t>DIM_SEX=="FEMALE"&amp; DIM_AGE_GROUP=="18-29 YEARS"</t>
   </si>
   <si>
     <t>3.3.2</t>
@@ -6529,6 +6532,9 @@
     <t>Number of disruptions to educational services attributed to disasters</t>
   </si>
   <si>
+    <t>DIM_SDG_INDICATOR=="11.5.2"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Disruption to health services	</t>
   </si>
   <si>
@@ -6917,10 +6923,10 @@
     <t>This source updated source with ID = 4</t>
   </si>
   <si>
-    <t>DIM_SEX=="FEMALE"&amp; DIM_AGE_GROUP=="18-29 YEARS"</t>
-  </si>
-  <si>
-    <t>DIM_SDG_INDICATOR=="11.5.2"</t>
+    <t>DIM_AGE_GROUP=="15+ YEARS"</t>
+  </si>
+  <si>
+    <t>DIM_SEX=="BOTH_SEXES" &amp; DIM_OCU_TYPE=="All occupations (isco-08)"</t>
   </si>
 </sst>
 </file>
@@ -10380,18 +10386,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="B2" t="s">
         <v>1017</v>
@@ -10402,7 +10408,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="B3" t="s">
         <v>901</v>
@@ -10413,7 +10419,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="B4" t="s">
         <v>1022</v>
@@ -10424,7 +10430,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="B5" t="s">
         <v>1129</v>
@@ -10479,46 +10485,46 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>2101</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>2099</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>2097</v>
-      </c>
       <c r="L1" s="12" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -10529,29 +10535,29 @@
         <v>1605</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>1889</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>770</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="L2" s="16">
         <f>IF(OR(I2="Updated",I2="Created"), 1, 0)</f>
@@ -10561,7 +10567,7 @@
         <v>772</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -10572,31 +10578,31 @@
         <v>1605</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>891</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="L3" s="16">
         <f>IF(OR(I3="Updated",I3="Created"), 1, 0)</f>
@@ -10606,7 +10612,7 @@
         <v>825</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="O3" s="1"/>
     </row>
@@ -10618,19 +10624,19 @@
         <v>1605</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>1609</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>1611</v>
@@ -10640,7 +10646,7 @@
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="L4" s="16">
         <f>IF(OR(I4="Updated",I4="Created"), 1, 0)</f>
@@ -10650,7 +10656,7 @@
         <v>833</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -10662,29 +10668,29 @@
         <v>1605</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>1095</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="L5" s="16">
         <f>IF(OR(I5="Updated",I5="Created"), 1, 0)</f>
@@ -10694,7 +10700,7 @@
         <v>825</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -10705,29 +10711,29 @@
         <v>1605</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>770</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="L6" s="16">
         <v>0</v>
@@ -10745,31 +10751,31 @@
         <v>1605</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>891</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="L7" s="16">
         <f>IF(OR(I7="Updated",I7="Created"), 1, 0)</f>
@@ -10851,28 +10857,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>2099</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>2097</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -10880,10 +10886,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -10911,7 +10917,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -10935,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -10959,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -10970,7 +10976,7 @@
         <v>862</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>770</v>
@@ -10981,7 +10987,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -10992,13 +10998,13 @@
         <v>828</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>891</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="F7" s="1">
         <v>2020</v>
@@ -11049,8 +11055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P204"/>
   <sheetViews>
-    <sheetView topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17572,8 +17578,8 @@
   <dimension ref="A1:U227"/>
   <sheetViews>
     <sheetView topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K81" sqref="K81"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M204" sqref="M204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26192,7 +26198,7 @@
       <c r="L204" s="30" t="s">
         <v>905</v>
       </c>
-      <c r="M204" s="30" t="s">
+      <c r="M204" s="81" t="s">
         <v>1571</v>
       </c>
       <c r="N204" s="30" t="s">
@@ -26688,10 +26694,11 @@
     <hyperlink ref="M81" r:id="rId180" xr:uid="{C9E70673-78A2-40D4-ACEE-7E3E3C7C10DA}"/>
     <hyperlink ref="M82" r:id="rId181" xr:uid="{9EAE95BE-611D-43C2-925E-FA3B2DB7D1CC}"/>
     <hyperlink ref="M126" r:id="rId182" xr:uid="{B1705D39-B787-4D6A-B272-77A9544AF1CE}"/>
+    <hyperlink ref="M204" r:id="rId183" xr:uid="{8F2EFED1-84A3-4DD3-97C4-17A0C63E59D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId183"/>
-  <drawing r:id="rId184"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId184"/>
+  <drawing r:id="rId185"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -26729,9 +26736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB0602F-A6E5-44D0-9D0A-02881BA44155}">
   <dimension ref="A1:S200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P72" sqref="P72"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28784,6 +28791,9 @@
       <c r="P44" t="s">
         <v>1740</v>
       </c>
+      <c r="Q44" t="s">
+        <v>2188</v>
+      </c>
       <c r="R44" t="str">
         <f>_xlfn.XLOOKUP(A44,Snapshot!B44:B241,Snapshot!H44:H241)</f>
         <v>S-203</v>
@@ -28830,6 +28840,9 @@
       <c r="N45" s="30"/>
       <c r="P45" t="s">
         <v>1653</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>2187</v>
       </c>
       <c r="R45" t="str">
         <f>_xlfn.XLOOKUP(A45,Snapshot!B45:B242,Snapshot!H45:H242)</f>
@@ -29924,7 +29937,7 @@
         <v>1740</v>
       </c>
       <c r="Q69" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="R69" t="str">
         <f>_xlfn.XLOOKUP(A69,Snapshot!B69:B266,Snapshot!H69:H266)</f>
@@ -29948,13 +29961,13 @@
         <v>1806</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="I70" s="30" t="s">
         <v>770</v>
@@ -29974,7 +29987,7 @@
         <v>1740</v>
       </c>
       <c r="Q70" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="R70" t="str">
         <f>_xlfn.XLOOKUP(A70,Snapshot!B70:B267,Snapshot!H70:H267)</f>
@@ -30001,10 +30014,10 @@
         <v>1720</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="I71" s="30" t="s">
         <v>770</v>
@@ -30024,7 +30037,7 @@
         <v>1740</v>
       </c>
       <c r="Q71" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="R71" t="str">
         <f>_xlfn.XLOOKUP(A71,Snapshot!B71:B268,Snapshot!H71:H268)</f>
@@ -30074,7 +30087,7 @@
         <v>1740</v>
       </c>
       <c r="Q72" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="R72" t="str">
         <f>_xlfn.XLOOKUP(A72,Snapshot!B72:B269,Snapshot!H72:H269)</f>
@@ -31666,7 +31679,7 @@
         <v>1653</v>
       </c>
       <c r="Q107" t="s">
-        <v>2185</v>
+        <v>1908</v>
       </c>
       <c r="R107" t="str">
         <f>_xlfn.XLOOKUP(A107,Snapshot!B107:B304,Snapshot!H107:H304)</f>
@@ -31690,13 +31703,13 @@
         <v>1649</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="G108" s="30" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="H108" s="30" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="I108" s="30" t="s">
         <v>770</v>
@@ -31734,13 +31747,13 @@
         <v>1649</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="G109" s="30" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="H109" s="30" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="I109" s="30" t="s">
         <v>770</v>
@@ -31774,13 +31787,13 @@
         <v>1825</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E110" s="37" t="s">
         <v>1795</v>
       </c>
       <c r="F110" s="37" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="G110" s="37" t="s">
         <v>1796</v>
@@ -31820,13 +31833,13 @@
         <v>1825</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E111" s="37" t="s">
         <v>1795</v>
       </c>
       <c r="F111" s="37" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="G111" s="37" t="s">
         <v>1798</v>
@@ -31866,13 +31879,13 @@
         <v>1825</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E112" s="37" t="s">
         <v>1795</v>
       </c>
       <c r="F112" s="37" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="G112" s="37" t="s">
         <v>1800</v>
@@ -31912,19 +31925,19 @@
         <v>1825</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E113" s="37" t="s">
         <v>1795</v>
       </c>
       <c r="F113" s="37" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="G113" s="37" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="I113" s="30" t="s">
         <v>770</v>
@@ -31958,7 +31971,7 @@
         <v>1825</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E114" s="37" t="s">
         <v>1795</v>
@@ -32002,7 +32015,7 @@
         <v>1825</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E115" s="37" t="s">
         <v>1795</v>
@@ -32046,19 +32059,19 @@
         <v>1825</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E116" s="30" t="s">
         <v>1806</v>
       </c>
       <c r="F116" s="30" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="G116" s="30" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="H116" s="30" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="I116" s="30" t="s">
         <v>770</v>
@@ -32092,19 +32105,19 @@
         <v>1825</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E117" s="30" t="s">
         <v>1806</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="G117" s="30" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="I117" s="30" t="s">
         <v>770</v>
@@ -32138,19 +32151,19 @@
         <v>1825</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E118" s="30" t="s">
         <v>1806</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="G118" s="30" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="I118" s="30" t="s">
         <v>770</v>
@@ -32184,19 +32197,19 @@
         <v>1825</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E119" s="30" t="s">
         <v>1806</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="G119" s="30" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="H119" s="30" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="I119" s="30" t="s">
         <v>891</v>
@@ -32228,19 +32241,19 @@
         <v>1825</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E120" s="30" t="s">
         <v>1806</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="G120" s="30" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="I120" s="30" t="s">
         <v>891</v>
@@ -32272,19 +32285,19 @@
         <v>1825</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E121" s="30" t="s">
         <v>1806</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="G121" s="30" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="H121" s="30" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="I121" s="30" t="s">
         <v>891</v>
@@ -32313,22 +32326,22 @@
         <v>1605</v>
       </c>
       <c r="C122" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E122" s="30" t="s">
         <v>1608</v>
       </c>
       <c r="F122" s="30" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="G122" s="30" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="I122" s="30" t="s">
         <v>770</v>
@@ -32359,22 +32372,22 @@
         <v>1605</v>
       </c>
       <c r="C123" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E123" s="30" t="s">
         <v>1608</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="H123" s="74" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="I123" s="30" t="s">
         <v>770</v>
@@ -32405,22 +32418,22 @@
         <v>1605</v>
       </c>
       <c r="C124" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E124" s="30" t="s">
         <v>1608</v>
       </c>
       <c r="F124" s="30" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="G124" s="30" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="I124" s="30" t="s">
         <v>770</v>
@@ -32451,22 +32464,22 @@
         <v>1605</v>
       </c>
       <c r="C125" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E125" s="30" t="s">
         <v>1608</v>
       </c>
       <c r="F125" s="30" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="G125" s="30" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="H125" s="74" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="I125" s="30" t="s">
         <v>770</v>
@@ -32497,22 +32510,22 @@
         <v>1605</v>
       </c>
       <c r="C126" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E126" s="30" t="s">
         <v>1608</v>
       </c>
       <c r="F126" s="30" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="G126" s="30" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="I126" s="30" t="s">
         <v>770</v>
@@ -32543,10 +32556,10 @@
         <v>1605</v>
       </c>
       <c r="C127" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E127" s="30" t="s">
         <v>1630</v>
@@ -32555,10 +32568,10 @@
         <v>1720</v>
       </c>
       <c r="G127" s="30" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="H127" s="30" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="I127" s="30" t="s">
         <v>770</v>
@@ -32587,10 +32600,10 @@
         <v>1605</v>
       </c>
       <c r="C128" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E128" s="30" t="s">
         <v>1630</v>
@@ -32599,10 +32612,10 @@
         <v>1631</v>
       </c>
       <c r="G128" s="30" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="H128" s="30" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="I128" s="30" t="s">
         <v>770</v>
@@ -32631,10 +32644,10 @@
         <v>1605</v>
       </c>
       <c r="C129" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E129" s="30" t="s">
         <v>1630</v>
@@ -32643,10 +32656,10 @@
         <v>1720</v>
       </c>
       <c r="G129" s="30" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="H129" s="30" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="I129" s="30" t="s">
         <v>770</v>
@@ -32675,10 +32688,10 @@
         <v>1605</v>
       </c>
       <c r="C130" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E130" s="30" t="s">
         <v>1630</v>
@@ -32687,10 +32700,10 @@
         <v>1720</v>
       </c>
       <c r="G130" s="30" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="H130" s="30" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="I130" s="30" t="s">
         <v>770</v>
@@ -32719,22 +32732,22 @@
         <v>1605</v>
       </c>
       <c r="C131" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E131" s="30" t="s">
         <v>1630</v>
       </c>
       <c r="F131" s="30" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="G131" s="30" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="H131" s="30" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="I131" s="30" t="s">
         <v>770</v>
@@ -32763,22 +32776,22 @@
         <v>1605</v>
       </c>
       <c r="C132" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E132" s="30" t="s">
         <v>1630</v>
       </c>
       <c r="F132" s="30" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="G132" s="30" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="H132" s="30" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="I132" s="30" t="s">
         <v>770</v>
@@ -32807,22 +32820,22 @@
         <v>1605</v>
       </c>
       <c r="C133" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E133" s="30" t="s">
         <v>1630</v>
       </c>
       <c r="F133" s="30" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="G133" s="30" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="H133" s="30" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="I133" s="30" t="s">
         <v>770</v>
@@ -32851,10 +32864,10 @@
         <v>1605</v>
       </c>
       <c r="C134" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E134" s="30" t="s">
         <v>1630</v>
@@ -32863,10 +32876,10 @@
         <v>1720</v>
       </c>
       <c r="G134" s="30" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="H134" s="30" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="I134" s="30" t="s">
         <v>770</v>
@@ -32895,10 +32908,10 @@
         <v>1605</v>
       </c>
       <c r="C135" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E135" s="30" t="s">
         <v>1630</v>
@@ -32907,10 +32920,10 @@
         <v>1720</v>
       </c>
       <c r="G135" s="30" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="H135" s="30" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="I135" s="30" t="s">
         <v>770</v>
@@ -32939,10 +32952,10 @@
         <v>1605</v>
       </c>
       <c r="C136" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E136" s="30" t="s">
         <v>1630</v>
@@ -32951,10 +32964,10 @@
         <v>1720</v>
       </c>
       <c r="G136" s="30" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="H136" s="30" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="I136" s="30" t="s">
         <v>770</v>
@@ -32983,10 +32996,10 @@
         <v>1605</v>
       </c>
       <c r="C137" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E137" s="30" t="s">
         <v>1630</v>
@@ -32995,10 +33008,10 @@
         <v>1720</v>
       </c>
       <c r="G137" s="30" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="H137" s="30" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="I137" s="30" t="s">
         <v>770</v>
@@ -33027,10 +33040,10 @@
         <v>1605</v>
       </c>
       <c r="C138" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E138" s="30" t="s">
         <v>1649</v>
@@ -33039,10 +33052,10 @@
         <v>1650</v>
       </c>
       <c r="G138" s="30" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="H138" s="30" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="I138" s="30" t="s">
         <v>770</v>
@@ -33076,10 +33089,10 @@
         <v>1605</v>
       </c>
       <c r="C139" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E139" s="30" t="s">
         <v>1649</v>
@@ -33088,10 +33101,10 @@
         <v>1720</v>
       </c>
       <c r="G139" s="30" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="H139" s="30" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="I139" s="30" t="s">
         <v>770</v>
@@ -33111,7 +33124,7 @@
         <v>1653</v>
       </c>
       <c r="Q139" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="R139" t="str">
         <f>_xlfn.XLOOKUP(A139,Snapshot!B139:B336,Snapshot!H139:H336)</f>
@@ -33126,10 +33139,10 @@
         <v>1605</v>
       </c>
       <c r="C140" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E140" s="30" t="s">
         <v>1649</v>
@@ -33138,10 +33151,10 @@
         <v>1720</v>
       </c>
       <c r="G140" s="28" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="H140" s="30" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="I140" s="30" t="s">
         <v>770</v>
@@ -33170,10 +33183,10 @@
         <v>1605</v>
       </c>
       <c r="C141" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E141" s="30" t="s">
         <v>1649</v>
@@ -33182,10 +33195,10 @@
         <v>1861</v>
       </c>
       <c r="G141" s="30" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="H141" s="30" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="I141" s="30" t="s">
         <v>770</v>
@@ -33217,10 +33230,10 @@
         <v>1605</v>
       </c>
       <c r="C142" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="E142" s="30" t="s">
         <v>1649</v>
@@ -33229,10 +33242,10 @@
         <v>1720</v>
       </c>
       <c r="G142" s="30" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="H142" s="30" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="I142" s="30" t="s">
         <v>770</v>
@@ -33261,10 +33274,10 @@
         <v>1605</v>
       </c>
       <c r="C143" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E143" s="30" t="s">
         <v>1608</v>
@@ -33273,10 +33286,10 @@
         <v>1615</v>
       </c>
       <c r="G143" s="30" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="H143" s="30" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="I143" s="30" t="s">
         <v>770</v>
@@ -33307,22 +33320,22 @@
         <v>1605</v>
       </c>
       <c r="C144" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E144" s="30" t="s">
         <v>1608</v>
       </c>
       <c r="F144" s="30" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="G144" s="30" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="H144" s="30" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="I144" s="30" t="s">
         <v>770</v>
@@ -33353,22 +33366,22 @@
         <v>1605</v>
       </c>
       <c r="C145" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E145" s="30" t="s">
         <v>1608</v>
       </c>
       <c r="F145" s="30" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="G145" s="30" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="H145" s="30" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="I145" s="30" t="s">
         <v>770</v>
@@ -33399,10 +33412,10 @@
         <v>1605</v>
       </c>
       <c r="C146" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E146" s="30" t="s">
         <v>1630</v>
@@ -33411,10 +33424,10 @@
         <v>1640</v>
       </c>
       <c r="G146" s="30" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="H146" s="30" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="I146" s="30" t="s">
         <v>770</v>
@@ -33443,10 +33456,10 @@
         <v>1605</v>
       </c>
       <c r="C147" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E147" s="30" t="s">
         <v>1630</v>
@@ -33455,10 +33468,10 @@
         <v>1720</v>
       </c>
       <c r="G147" s="30" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="H147" s="30" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="I147" s="30" t="s">
         <v>770</v>
@@ -33487,10 +33500,10 @@
         <v>1605</v>
       </c>
       <c r="C148" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E148" s="30" t="s">
         <v>1630</v>
@@ -33499,10 +33512,10 @@
         <v>1720</v>
       </c>
       <c r="G148" s="30" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="H148" s="30" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="I148" s="30" t="s">
         <v>770</v>
@@ -33531,10 +33544,10 @@
         <v>1605</v>
       </c>
       <c r="C149" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E149" s="30" t="s">
         <v>1649</v>
@@ -33543,10 +33556,10 @@
         <v>1880</v>
       </c>
       <c r="G149" s="30" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="H149" s="30" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="I149" s="30" t="s">
         <v>770</v>
@@ -33577,10 +33590,10 @@
         <v>1605</v>
       </c>
       <c r="C150" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E150" s="30" t="s">
         <v>1608</v>
@@ -33589,10 +33602,10 @@
         <v>1612</v>
       </c>
       <c r="G150" s="30" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="H150" s="30" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="I150" s="30" t="s">
         <v>770</v>
@@ -33623,10 +33636,10 @@
         <v>1605</v>
       </c>
       <c r="C151" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E151" s="30" t="s">
         <v>1608</v>
@@ -33635,10 +33648,10 @@
         <v>1889</v>
       </c>
       <c r="G151" s="30" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="H151" s="30" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="I151" s="30" t="s">
         <v>770</v>
@@ -33669,22 +33682,22 @@
         <v>1605</v>
       </c>
       <c r="C152" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E152" s="30" t="s">
         <v>1608</v>
       </c>
       <c r="F152" s="30" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G152" s="30" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H152" s="30" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="I152" s="30" t="s">
         <v>770</v>
@@ -33715,10 +33728,10 @@
         <v>1605</v>
       </c>
       <c r="C153" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E153" s="30" t="s">
         <v>1608</v>
@@ -33727,10 +33740,10 @@
         <v>1720</v>
       </c>
       <c r="G153" s="30" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H153" s="30" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="I153" s="30" t="s">
         <v>770</v>
@@ -33759,10 +33772,10 @@
         <v>1605</v>
       </c>
       <c r="C154" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E154" s="30" t="s">
         <v>1608</v>
@@ -33771,10 +33784,10 @@
         <v>1720</v>
       </c>
       <c r="G154" s="30" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="H154" s="30" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="I154" s="30" t="s">
         <v>770</v>
@@ -33803,22 +33816,22 @@
         <v>1605</v>
       </c>
       <c r="C155" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E155" s="30" t="s">
         <v>1608</v>
       </c>
       <c r="F155" s="30" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G155" s="30" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H155" s="30" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I155" s="30" t="s">
         <v>770</v>
@@ -33849,22 +33862,22 @@
         <v>1605</v>
       </c>
       <c r="C156" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E156" s="30" t="s">
         <v>1608</v>
       </c>
       <c r="F156" s="30" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G156" s="30" t="s">
         <v>1613</v>
       </c>
       <c r="H156" s="30" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="I156" s="30" t="s">
         <v>770</v>
@@ -33895,22 +33908,22 @@
         <v>1605</v>
       </c>
       <c r="C157" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E157" s="30" t="s">
         <v>1630</v>
       </c>
       <c r="F157" s="30" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G157" s="30" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="H157" s="28" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="I157" s="30" t="s">
         <v>891</v>
@@ -33939,10 +33952,10 @@
         <v>1605</v>
       </c>
       <c r="C158" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E158" s="30" t="s">
         <v>1630</v>
@@ -33951,10 +33964,10 @@
         <v>1720</v>
       </c>
       <c r="G158" s="30" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="H158" s="30" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="I158" s="30" t="s">
         <v>770</v>
@@ -33983,22 +33996,22 @@
         <v>1605</v>
       </c>
       <c r="C159" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E159" s="30" t="s">
         <v>1630</v>
       </c>
       <c r="F159" s="30" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="G159" s="30" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="I159" s="30" t="s">
         <v>770</v>
@@ -34029,22 +34042,22 @@
         <v>1605</v>
       </c>
       <c r="C160" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E160" s="30" t="s">
         <v>1630</v>
       </c>
       <c r="F160" s="30" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="G160" s="30" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H160" s="74" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I160" s="30" t="s">
         <v>770</v>
@@ -34073,22 +34086,22 @@
         <v>1605</v>
       </c>
       <c r="C161" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E161" s="30" t="s">
         <v>1649</v>
       </c>
       <c r="F161" s="30" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="G161" s="30" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="H161" s="30" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="I161" s="30" t="s">
         <v>770</v>
@@ -34117,22 +34130,22 @@
         <v>1605</v>
       </c>
       <c r="C162" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E162" s="30" t="s">
         <v>1649</v>
       </c>
       <c r="F162" s="30" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="G162" s="30" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="H162" s="30" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="I162" s="30" t="s">
         <v>770</v>
@@ -34163,22 +34176,22 @@
         <v>1605</v>
       </c>
       <c r="C163" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E163" s="30" t="s">
         <v>1649</v>
       </c>
       <c r="F163" s="30" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="H163" s="28" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="I163" s="30" t="s">
         <v>770</v>
@@ -34209,10 +34222,10 @@
         <v>1605</v>
       </c>
       <c r="C164" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E164" s="30" t="s">
         <v>1608</v>
@@ -34221,10 +34234,10 @@
         <v>1681</v>
       </c>
       <c r="G164" s="30" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="H164" s="30" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="I164" s="30" t="s">
         <v>770</v>
@@ -34255,10 +34268,10 @@
         <v>1605</v>
       </c>
       <c r="C165" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E165" s="30" t="s">
         <v>1630</v>
@@ -34267,10 +34280,10 @@
         <v>1711</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="H165" s="74" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="I165" s="30" t="s">
         <v>891</v>
@@ -34290,7 +34303,7 @@
         <v>1740</v>
       </c>
       <c r="Q165" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="R165" t="str">
         <f>_xlfn.XLOOKUP(A165,Snapshot!B165:B362,Snapshot!H165:H362)</f>
@@ -34305,10 +34318,10 @@
         <v>1605</v>
       </c>
       <c r="C166" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E166" s="30" t="s">
         <v>1649</v>
@@ -34317,10 +34330,10 @@
         <v>1737</v>
       </c>
       <c r="G166" s="30" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="H166" s="30" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="I166" s="30" t="s">
         <v>891</v>
@@ -34340,7 +34353,7 @@
         <v>1653</v>
       </c>
       <c r="Q166" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="R166" t="str">
         <f>_xlfn.XLOOKUP(A166,Snapshot!B166:B363,Snapshot!H166:H363)</f>
@@ -34355,10 +34368,10 @@
         <v>1605</v>
       </c>
       <c r="C167" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E167" s="30" t="s">
         <v>1649</v>
@@ -34367,10 +34380,10 @@
         <v>1720</v>
       </c>
       <c r="G167" s="30" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="H167" s="28" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="I167" s="30" t="s">
         <v>770</v>
@@ -34390,7 +34403,7 @@
         <v>1653</v>
       </c>
       <c r="Q167" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="R167" t="str">
         <f>_xlfn.XLOOKUP(A167,Snapshot!B167:B364,Snapshot!H167:H364)</f>
@@ -34405,10 +34418,10 @@
         <v>1605</v>
       </c>
       <c r="C168" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E168" s="30" t="s">
         <v>1649</v>
@@ -34417,10 +34430,10 @@
         <v>1720</v>
       </c>
       <c r="G168" s="30" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="H168" s="30" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="I168" s="30" t="s">
         <v>770</v>
@@ -34440,7 +34453,7 @@
         <v>1653</v>
       </c>
       <c r="Q168" t="s">
-        <v>2186</v>
+        <v>2057</v>
       </c>
       <c r="R168" t="str">
         <f>_xlfn.XLOOKUP(A168,Snapshot!B168:B365,Snapshot!H168:H365)</f>
@@ -34455,10 +34468,10 @@
         <v>1605</v>
       </c>
       <c r="C169" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E169" s="30" t="s">
         <v>1649</v>
@@ -34467,10 +34480,10 @@
         <v>1720</v>
       </c>
       <c r="G169" s="30" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="H169" s="30" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="I169" s="30" t="s">
         <v>770</v>
@@ -34490,7 +34503,7 @@
         <v>1653</v>
       </c>
       <c r="Q169" t="s">
-        <v>2186</v>
+        <v>2057</v>
       </c>
       <c r="R169" t="str">
         <f>_xlfn.XLOOKUP(A169,Snapshot!B169:B366,Snapshot!H169:H366)</f>
@@ -34505,10 +34518,10 @@
         <v>1605</v>
       </c>
       <c r="C170" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E170" s="30" t="s">
         <v>1649</v>
@@ -34517,10 +34530,10 @@
         <v>1720</v>
       </c>
       <c r="G170" s="30" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="H170" s="30" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="I170" s="30" t="s">
         <v>770</v>
@@ -34540,7 +34553,7 @@
         <v>1653</v>
       </c>
       <c r="Q170" t="s">
-        <v>2186</v>
+        <v>2057</v>
       </c>
       <c r="R170" t="str">
         <f>_xlfn.XLOOKUP(A170,Snapshot!B170:B367,Snapshot!H170:H367)</f>
@@ -34555,22 +34568,22 @@
         <v>1605</v>
       </c>
       <c r="C171" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E171" s="30" t="s">
         <v>1649</v>
       </c>
       <c r="F171" s="30" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="G171" s="30" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="H171" s="30" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="I171" s="30" t="s">
         <v>770</v>
@@ -34601,22 +34614,22 @@
         <v>1605</v>
       </c>
       <c r="C172" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E172" s="30" t="s">
         <v>1649</v>
       </c>
       <c r="F172" s="30" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="G172" s="30" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="H172" s="30" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="I172" s="30" t="s">
         <v>770</v>
@@ -34645,10 +34658,10 @@
         <v>1605</v>
       </c>
       <c r="C173" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="E173" s="30" t="s">
         <v>1608</v>
@@ -34657,10 +34670,10 @@
         <v>1763</v>
       </c>
       <c r="G173" s="30" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="H173" s="30" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="I173" s="30" t="s">
         <v>770</v>
@@ -34691,10 +34704,10 @@
         <v>1605</v>
       </c>
       <c r="C174" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="E174" s="30" t="s">
         <v>1608</v>
@@ -34703,10 +34716,10 @@
         <v>1766</v>
       </c>
       <c r="G174" s="30" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="H174" s="30" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="I174" s="30" t="s">
         <v>770</v>
@@ -34737,10 +34750,10 @@
         <v>1605</v>
       </c>
       <c r="C175" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="E175" s="30" t="s">
         <v>1630</v>
@@ -34749,10 +34762,10 @@
         <v>1769</v>
       </c>
       <c r="G175" s="30" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="H175" s="30" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="I175" s="30" t="s">
         <v>770</v>
@@ -34783,22 +34796,22 @@
         <v>1605</v>
       </c>
       <c r="C176" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="E176" s="30" t="s">
         <v>1649</v>
       </c>
       <c r="F176" s="30" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="G176" s="30" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="H176" s="30" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="I176" s="30" t="s">
         <v>770</v>
@@ -34827,22 +34840,22 @@
         <v>1605</v>
       </c>
       <c r="C177" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="E177" s="30" t="s">
         <v>1649</v>
       </c>
       <c r="F177" s="30" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="G177" s="28" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="H177" s="30" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="I177" s="30" t="s">
         <v>770</v>
@@ -34871,22 +34884,22 @@
         <v>1605</v>
       </c>
       <c r="C178" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="E178" s="30" t="s">
         <v>1649</v>
       </c>
       <c r="F178" s="30" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="G178" s="30" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="H178" s="30" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="I178" s="30" t="s">
         <v>770</v>
@@ -34915,10 +34928,10 @@
         <v>1605</v>
       </c>
       <c r="C179" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="E179" s="30" t="s">
         <v>1649</v>
@@ -34927,10 +34940,10 @@
         <v>1720</v>
       </c>
       <c r="G179" s="30" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="H179" s="28" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="I179" s="30" t="s">
         <v>770</v>
@@ -34959,16 +34972,16 @@
         <v>1605</v>
       </c>
       <c r="C180" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E180" s="37" t="s">
         <v>1795</v>
       </c>
       <c r="F180" s="37" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="G180" s="37" t="s">
         <v>1796</v>
@@ -35003,16 +35016,16 @@
         <v>1605</v>
       </c>
       <c r="C181" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E181" s="37" t="s">
         <v>1795</v>
       </c>
       <c r="F181" s="37" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="G181" s="37" t="s">
         <v>1798</v>
@@ -35047,16 +35060,16 @@
         <v>1605</v>
       </c>
       <c r="C182" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E182" s="37" t="s">
         <v>1795</v>
       </c>
       <c r="F182" s="37" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="G182" s="37" t="s">
         <v>1800</v>
@@ -35093,22 +35106,22 @@
         <v>1605</v>
       </c>
       <c r="C183" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E183" s="37" t="s">
         <v>1795</v>
       </c>
       <c r="F183" s="37" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="G183" s="37" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="H183" s="30" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="I183" s="30" t="s">
         <v>770</v>
@@ -35139,10 +35152,10 @@
         <v>1605</v>
       </c>
       <c r="C184" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E184" s="37" t="s">
         <v>1795</v>
@@ -35183,22 +35196,22 @@
         <v>1605</v>
       </c>
       <c r="C185" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E185" s="45" t="s">
         <v>1806</v>
       </c>
       <c r="F185" s="30" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="H185" s="30" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="I185" s="30" t="s">
         <v>770</v>
@@ -35230,22 +35243,22 @@
         <v>1605</v>
       </c>
       <c r="C186" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E186" s="45" t="s">
         <v>1806</v>
       </c>
       <c r="F186" s="30" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="G186" s="30" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="H186" s="74" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="I186" s="30" t="s">
         <v>770</v>
@@ -35277,19 +35290,19 @@
         <v>1605</v>
       </c>
       <c r="C187" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E187" s="45" t="s">
         <v>1806</v>
       </c>
       <c r="F187" s="30" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="G187" s="30" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="H187" s="30" t="s">
         <v>1821</v>
@@ -35321,19 +35334,19 @@
         <v>1605</v>
       </c>
       <c r="C188" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E188" s="45" t="s">
         <v>1806</v>
       </c>
       <c r="F188" s="30" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="H188" s="30" t="s">
         <v>1824</v>
@@ -35365,19 +35378,19 @@
         <v>1605</v>
       </c>
       <c r="C189" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E189" s="45" t="s">
         <v>1806</v>
       </c>
       <c r="F189" s="30" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="G189" s="30" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="H189" s="30" t="s">
         <v>1809</v>
@@ -35415,19 +35428,19 @@
         <v>1606</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E190" s="37" t="s">
         <v>1795</v>
       </c>
       <c r="F190" s="37" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="G190" s="37" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="H190" s="30" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="I190" s="30" t="s">
         <v>770</v>
@@ -35526,7 +35539,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="16" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="B200" s="30" t="s">
         <v>1605</v>
@@ -35648,25 +35661,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -35674,7 +35687,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="C2" s="1">
         <v>2018</v>
@@ -35683,7 +35696,7 @@
         <v>770</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -35738,25 +35751,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -35764,10 +35777,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="C2" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
     </row>
   </sheetData>
@@ -35791,15 +35804,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -35931,25 +35944,25 @@
         <v>752</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>1599</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>748</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -35960,10 +35973,10 @@
         <v>1605</v>
       </c>
       <c r="B2" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C2" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="D2" t="s">
         <v>1608</v>
@@ -35984,24 +35997,24 @@
         <v>1017</v>
       </c>
       <c r="J2" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="K2" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="L2" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="B3" t="s">
         <v>1606</v>
       </c>
       <c r="C3" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D3" t="s">
         <v>1630</v>
@@ -36022,13 +36035,13 @@
         <v>766</v>
       </c>
       <c r="J3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2122</v>
+      </c>
+      <c r="L3" t="s">
         <v>2119</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2120</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -36036,7 +36049,7 @@
         <v>1825</v>
       </c>
       <c r="C4" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D4" t="s">
         <v>1649</v>
@@ -36054,18 +36067,18 @@
         <v>1115</v>
       </c>
       <c r="J4" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="K4" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="L4" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="D5" t="s">
         <v>1795</v>
@@ -36077,15 +36090,15 @@
         <v>828</v>
       </c>
       <c r="K5" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="L5" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="D6" t="s">
         <v>1806</v>
@@ -36094,10 +36107,10 @@
         <v>1091</v>
       </c>
       <c r="K6" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="L6" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -36108,7 +36121,7 @@
         <v>781</v>
       </c>
       <c r="K7" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -36119,7 +36132,7 @@
         <v>991</v>
       </c>
       <c r="K8" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -36127,10 +36140,10 @@
         <v>1762</v>
       </c>
       <c r="I9" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="K9" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -36141,7 +36154,7 @@
         <v>1022</v>
       </c>
       <c r="K10" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -36152,7 +36165,7 @@
         <v>1129</v>
       </c>
       <c r="K11" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -36163,7 +36176,7 @@
         <v>901</v>
       </c>
       <c r="K12" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -36171,23 +36184,23 @@
         <v>1794</v>
       </c>
       <c r="K13" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="K14" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="K15" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
     </row>
   </sheetData>
@@ -36196,21 +36209,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6C00DC80E9FED4596C9F6D7CDDD6042" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5eeea28be7a11a4fc7601b4d531de3e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="801409e539578746097a67e8a71a3340" ns2:_="">
     <xsd:import namespace="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
@@ -36382,31 +36380,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFBDC1E-FC23-4580-A942-B37D5BE17E7A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C727020-E847-4FBA-9836-8521D858741A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22473AD0-7963-47FF-B168-89BA3A7FA263}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36422,4 +36411,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C727020-E847-4FBA-9836-8521D858741A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFBDC1E-FC23-4580-A942-B37D5BE17E7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>